--- a/nutrangvekhocu.xlsx
+++ b/nutrangvekhocu.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wamp64\www\duan_demo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{094171DE-F215-4593-9ED5-C2B2F21DF0E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8F2B038-ECA5-4305-B283-75E2BBA8F44F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9DD59859-D117-4F8A-A9C3-6FEA465319A6}"/>
+    <workbookView xWindow="2820" yWindow="5640" windowWidth="24345" windowHeight="9180" xr2:uid="{9DD59859-D117-4F8A-A9C3-6FEA465319A6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="135">
   <si>
     <t>Trạng thái</t>
   </si>
@@ -945,15 +945,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC6978AB-6EE7-4B7B-9CB7-3FE6BB0E4517}">
-  <dimension ref="A1:AL11"/>
+  <dimension ref="A1:AK11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="I1" sqref="I1"/>
+      <selection pane="bottomLeft" activeCell="R1" sqref="R1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:38" ht="63" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1003,73 +1005,70 @@
         <v>15</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="V1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AL1" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:38" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:37" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>37</v>
       </c>
@@ -1118,41 +1117,41 @@
       <c r="P2" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="Q2" s="3" t="s">
-        <v>43</v>
+      <c r="Q2" s="4" t="s">
+        <v>52</v>
       </c>
       <c r="R2" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="S2" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="T2" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="U2" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="T2" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="U2" s="4" t="s">
-        <v>43</v>
-      </c>
       <c r="V2" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="W2" s="4" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="X2" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y2" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z2" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="Y2" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="Z2" s="4" t="s">
-        <v>52</v>
-      </c>
       <c r="AA2" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="AB2" s="4" t="s">
-        <v>52</v>
+        <v>52</v>
+      </c>
+      <c r="AB2" s="3" t="s">
+        <v>43</v>
       </c>
       <c r="AC2" s="3" t="s">
         <v>43</v>
@@ -1164,28 +1163,25 @@
         <v>43</v>
       </c>
       <c r="AF2" s="3" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="AG2" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="AH2" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="AI2" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="AJ2" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="AK2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH2" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI2" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ2" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="AL2" s="4" t="s">
+      <c r="AK2" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:38" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:37" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>37</v>
       </c>
@@ -1234,41 +1230,41 @@
       <c r="P3" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="Q3" s="6" t="s">
-        <v>43</v>
+      <c r="Q3" s="7" t="s">
+        <v>52</v>
       </c>
       <c r="R3" s="7" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="S3" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="T3" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="U3" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="T3" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="U3" s="7" t="s">
-        <v>43</v>
-      </c>
       <c r="V3" s="7" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="W3" s="7" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="X3" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y3" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z3" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="Y3" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="Z3" s="7" t="s">
-        <v>52</v>
-      </c>
       <c r="AA3" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="AB3" s="7" t="s">
-        <v>52</v>
+        <v>52</v>
+      </c>
+      <c r="AB3" s="6" t="s">
+        <v>43</v>
       </c>
       <c r="AC3" s="6" t="s">
         <v>43</v>
@@ -1280,28 +1276,25 @@
         <v>43</v>
       </c>
       <c r="AF3" s="6" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="AG3" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AH3" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="AI3" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="AJ3" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="AK3" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH3" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI3" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ3" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="AL3" s="7" t="s">
+      <c r="AK3" s="7" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:38" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:37" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>37</v>
       </c>
@@ -1350,41 +1343,41 @@
       <c r="P4" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="Q4" s="3" t="s">
-        <v>43</v>
+      <c r="Q4" s="4" t="s">
+        <v>52</v>
       </c>
       <c r="R4" s="4" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="S4" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="T4" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="U4" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="T4" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="U4" s="4" t="s">
-        <v>43</v>
-      </c>
       <c r="V4" s="4" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="W4" s="4" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="X4" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y4" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z4" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="Y4" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="Z4" s="4" t="s">
-        <v>52</v>
-      </c>
       <c r="AA4" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="AB4" s="4" t="s">
-        <v>52</v>
+        <v>52</v>
+      </c>
+      <c r="AB4" s="3" t="s">
+        <v>43</v>
       </c>
       <c r="AC4" s="3" t="s">
         <v>43</v>
@@ -1393,31 +1386,28 @@
         <v>43</v>
       </c>
       <c r="AE4" s="3" t="s">
-        <v>43</v>
+        <v>72</v>
       </c>
       <c r="AF4" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AG4" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH4" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI4" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ4" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="AH4" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="AI4" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="AJ4" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="AK4" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="AL4" s="4" t="s">
+      <c r="AK4" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:38" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:37" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>37</v>
       </c>
@@ -1466,41 +1456,41 @@
       <c r="P5" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="Q5" s="6" t="s">
-        <v>43</v>
+      <c r="Q5" s="7" t="s">
+        <v>52</v>
       </c>
       <c r="R5" s="7" t="s">
-        <v>52</v>
+        <v>78</v>
       </c>
       <c r="S5" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="T5" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="U5" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="T5" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="U5" s="7" t="s">
-        <v>43</v>
-      </c>
       <c r="V5" s="7" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="W5" s="7" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="X5" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y5" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z5" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="Y5" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="Z5" s="7" t="s">
-        <v>52</v>
-      </c>
       <c r="AA5" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="AB5" s="7" t="s">
-        <v>52</v>
+        <v>52</v>
+      </c>
+      <c r="AB5" s="6" t="s">
+        <v>43</v>
       </c>
       <c r="AC5" s="6" t="s">
         <v>43</v>
@@ -1509,31 +1499,28 @@
         <v>43</v>
       </c>
       <c r="AE5" s="6" t="s">
-        <v>43</v>
+        <v>72</v>
       </c>
       <c r="AF5" s="6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AG5" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH5" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI5" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ5" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="AH5" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="AI5" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="AJ5" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="AK5" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="AL5" s="7" t="s">
+      <c r="AK5" s="7" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:38" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:37" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>37</v>
       </c>
@@ -1582,74 +1569,71 @@
       <c r="P6" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="Q6" s="3" t="s">
-        <v>43</v>
+      <c r="Q6" s="4" t="s">
+        <v>52</v>
       </c>
       <c r="R6" s="4" t="s">
-        <v>52</v>
+        <v>84</v>
       </c>
       <c r="S6" s="4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="T6" s="4" t="s">
-        <v>85</v>
+        <v>43</v>
       </c>
       <c r="U6" s="4" t="s">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="V6" s="4" t="s">
-        <v>86</v>
+        <v>52</v>
       </c>
       <c r="W6" s="4" t="s">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="X6" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y6" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z6" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="Y6" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="Z6" s="4" t="s">
-        <v>52</v>
-      </c>
       <c r="AA6" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="AB6" s="4" t="s">
-        <v>52</v>
+        <v>52</v>
+      </c>
+      <c r="AB6" s="3" t="s">
+        <v>89</v>
       </c>
       <c r="AC6" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD6" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE6" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF6" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG6" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH6" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI6" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ6" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="AD6" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="AE6" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="AF6" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="AG6" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="AH6" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="AI6" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="AJ6" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="AK6" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="AL6" s="4" t="s">
+      <c r="AK6" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:38" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:37" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>37</v>
       </c>
@@ -1698,41 +1682,41 @@
       <c r="P7" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="Q7" s="6" t="s">
-        <v>43</v>
+      <c r="Q7" s="7" t="s">
+        <v>52</v>
       </c>
       <c r="R7" s="7" t="s">
-        <v>52</v>
+        <v>94</v>
       </c>
       <c r="S7" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="T7" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="U7" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="T7" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="U7" s="7" t="s">
-        <v>43</v>
-      </c>
       <c r="V7" s="7" t="s">
-        <v>94</v>
+        <v>52</v>
       </c>
       <c r="W7" s="7" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="X7" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y7" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z7" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="Y7" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="Z7" s="7" t="s">
-        <v>52</v>
-      </c>
       <c r="AA7" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="AB7" s="7" t="s">
-        <v>52</v>
+        <v>52</v>
+      </c>
+      <c r="AB7" s="6" t="s">
+        <v>43</v>
       </c>
       <c r="AC7" s="6" t="s">
         <v>43</v>
@@ -1744,28 +1728,25 @@
         <v>43</v>
       </c>
       <c r="AF7" s="6" t="s">
-        <v>43</v>
+        <v>96</v>
       </c>
       <c r="AG7" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="AH7" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="AI7" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="AJ7" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="AK7" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH7" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI7" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ7" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="AL7" s="7" t="s">
+      <c r="AK7" s="7" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:38" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:37" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>37</v>
       </c>
@@ -1814,74 +1795,71 @@
       <c r="P8" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="Q8" s="3" t="s">
-        <v>43</v>
+      <c r="Q8" s="4" t="s">
+        <v>52</v>
       </c>
       <c r="R8" s="4" t="s">
-        <v>52</v>
+        <v>102</v>
       </c>
       <c r="S8" s="4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="T8" s="4" t="s">
-        <v>103</v>
+        <v>43</v>
       </c>
       <c r="U8" s="4" t="s">
-        <v>43</v>
+        <v>104</v>
       </c>
       <c r="V8" s="4" t="s">
-        <v>104</v>
+        <v>52</v>
       </c>
       <c r="W8" s="4" t="s">
-        <v>52</v>
+        <v>105</v>
       </c>
       <c r="X8" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y8" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z8" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="Y8" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="Z8" s="4" t="s">
-        <v>52</v>
-      </c>
       <c r="AA8" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="AB8" s="4" t="s">
-        <v>52</v>
+        <v>52</v>
+      </c>
+      <c r="AB8" s="3" t="s">
+        <v>107</v>
       </c>
       <c r="AC8" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AD8" s="3" t="s">
-        <v>108</v>
+        <v>43</v>
       </c>
       <c r="AE8" s="3" t="s">
         <v>43</v>
       </c>
       <c r="AF8" s="3" t="s">
-        <v>43</v>
+        <v>109</v>
       </c>
       <c r="AG8" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="AH8" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="AI8" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="AJ8" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="AK8" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH8" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI8" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ8" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="AL8" s="4" t="s">
+      <c r="AK8" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:38" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:37" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>37</v>
       </c>
@@ -1930,74 +1908,71 @@
       <c r="P9" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="Q9" s="6" t="s">
-        <v>43</v>
+      <c r="Q9" s="7" t="s">
+        <v>52</v>
       </c>
       <c r="R9" s="7" t="s">
-        <v>52</v>
+        <v>104</v>
       </c>
       <c r="S9" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="T9" s="7" t="s">
-        <v>103</v>
+        <v>43</v>
       </c>
       <c r="U9" s="7" t="s">
-        <v>43</v>
+        <v>113</v>
       </c>
       <c r="V9" s="7" t="s">
-        <v>113</v>
+        <v>52</v>
       </c>
       <c r="W9" s="7" t="s">
-        <v>52</v>
+        <v>114</v>
       </c>
       <c r="X9" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y9" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z9" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="Y9" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="Z9" s="7" t="s">
-        <v>52</v>
-      </c>
       <c r="AA9" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="AB9" s="7" t="s">
-        <v>52</v>
+        <v>52</v>
+      </c>
+      <c r="AB9" s="6" t="s">
+        <v>107</v>
       </c>
       <c r="AC9" s="6" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AD9" s="6" t="s">
-        <v>108</v>
+        <v>43</v>
       </c>
       <c r="AE9" s="6" t="s">
-        <v>43</v>
+        <v>72</v>
       </c>
       <c r="AF9" s="6" t="s">
-        <v>72</v>
+        <v>116</v>
       </c>
       <c r="AG9" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="AH9" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="AI9" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="AJ9" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="AK9" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="AL9" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH9" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI9" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ9" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK9" s="7" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:38" ht="63" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:37" ht="63" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>37</v>
       </c>
@@ -2046,74 +2021,71 @@
       <c r="P10" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="Q10" s="3" t="s">
-        <v>43</v>
+      <c r="Q10" s="4" t="s">
+        <v>52</v>
       </c>
       <c r="R10" s="4" t="s">
-        <v>52</v>
+        <v>121</v>
       </c>
       <c r="S10" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="T10" s="4" t="s">
-        <v>122</v>
+        <v>43</v>
       </c>
       <c r="U10" s="4" t="s">
-        <v>43</v>
+        <v>123</v>
       </c>
       <c r="V10" s="4" t="s">
-        <v>123</v>
+        <v>52</v>
       </c>
       <c r="W10" s="4" t="s">
-        <v>52</v>
+        <v>124</v>
       </c>
       <c r="X10" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="Y10" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z10" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="Y10" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="Z10" s="4" t="s">
-        <v>52</v>
-      </c>
       <c r="AA10" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="AB10" s="4" t="s">
-        <v>52</v>
+        <v>52</v>
+      </c>
+      <c r="AB10" s="3" t="s">
+        <v>126</v>
       </c>
       <c r="AC10" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AD10" s="3" t="s">
-        <v>127</v>
+        <v>43</v>
       </c>
       <c r="AE10" s="3" t="s">
-        <v>43</v>
+        <v>72</v>
       </c>
       <c r="AF10" s="3" t="s">
-        <v>72</v>
+        <v>128</v>
       </c>
       <c r="AG10" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="AH10" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="AI10" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="AJ10" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="AK10" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="AL10" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH10" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI10" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ10" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK10" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:38" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:37" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A11" s="9"/>
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
@@ -2133,47 +2105,46 @@
       <c r="O11" s="10"/>
       <c r="P11" s="10"/>
       <c r="Q11" s="10"/>
-      <c r="R11" s="10"/>
+      <c r="R11" s="12" t="s">
+        <v>130</v>
+      </c>
       <c r="S11" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="T11" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="U11" s="10"/>
+      <c r="T11" s="10"/>
+      <c r="U11" s="12" t="s">
+        <v>132</v>
+      </c>
       <c r="V11" s="12" t="s">
-        <v>132</v>
+        <v>52</v>
       </c>
       <c r="W11" s="12" t="s">
-        <v>52</v>
+        <v>133</v>
       </c>
       <c r="X11" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y11" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z11" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="Y11" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="Z11" s="12" t="s">
-        <v>52</v>
-      </c>
       <c r="AA11" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="AB11" s="12" t="s">
-        <v>52</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="AB11" s="10"/>
       <c r="AC11" s="10"/>
       <c r="AD11" s="10"/>
       <c r="AE11" s="10"/>
       <c r="AF11" s="10"/>
       <c r="AG11" s="10"/>
       <c r="AH11" s="10"/>
-      <c r="AI11" s="10"/>
-      <c r="AJ11" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="AK11" s="10"/>
-      <c r="AL11" s="14"/>
+      <c r="AI11" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="AJ11" s="10"/>
+      <c r="AK11" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/nutrangvekhocu.xlsx
+++ b/nutrangvekhocu.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wamp64\www\duan_demo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8F2B038-ECA5-4305-B283-75E2BBA8F44F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A3ADA06-D0EF-46CB-9320-6B68E60DD664}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2820" yWindow="5640" windowWidth="24345" windowHeight="9180" xr2:uid="{9DD59859-D117-4F8A-A9C3-6FEA465319A6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9DD59859-D117-4F8A-A9C3-6FEA465319A6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="135">
   <si>
     <t>Trạng thái</t>
   </si>
@@ -945,17 +945,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC6978AB-6EE7-4B7B-9CB7-3FE6BB0E4517}">
-  <dimension ref="A1:AK11"/>
+  <dimension ref="A1:AL11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="I1" sqref="I1"/>
-      <selection pane="bottomLeft" activeCell="R1" sqref="R1"/>
+      <selection pane="bottomLeft" activeCell="AG7" sqref="AG7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:37" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:38" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1005,70 +1005,73 @@
         <v>15</v>
       </c>
       <c r="Q1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:37" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:38" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>37</v>
       </c>
@@ -1117,41 +1120,41 @@
       <c r="P2" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="Q2" s="4" t="s">
-        <v>52</v>
+      <c r="Q2" s="3" t="s">
+        <v>43</v>
       </c>
       <c r="R2" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="S2" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="S2" s="4" t="s">
+      <c r="T2" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="T2" s="4" t="s">
-        <v>43</v>
-      </c>
       <c r="U2" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="V2" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="V2" s="4" t="s">
-        <v>52</v>
-      </c>
       <c r="W2" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="X2" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="X2" s="4" t="s">
-        <v>52</v>
-      </c>
       <c r="Y2" s="4" t="s">
         <v>52</v>
       </c>
       <c r="Z2" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA2" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="AA2" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="AB2" s="3" t="s">
-        <v>43</v>
+      <c r="AB2" s="4" t="s">
+        <v>52</v>
       </c>
       <c r="AC2" s="3" t="s">
         <v>43</v>
@@ -1163,25 +1166,28 @@
         <v>43</v>
       </c>
       <c r="AF2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG2" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="AG2" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="AH2" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="AI2" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="AJ2" s="3" t="s">
+      <c r="AH2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AI2" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="AJ2" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK2" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="AK2" s="4" t="s">
+      <c r="AL2" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:37" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:38" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>37</v>
       </c>
@@ -1230,41 +1236,41 @@
       <c r="P3" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="Q3" s="7" t="s">
-        <v>52</v>
+      <c r="Q3" s="6" t="s">
+        <v>43</v>
       </c>
       <c r="R3" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="S3" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="S3" s="7" t="s">
+      <c r="T3" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="T3" s="7" t="s">
-        <v>43</v>
-      </c>
       <c r="U3" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="V3" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="V3" s="7" t="s">
-        <v>52</v>
-      </c>
       <c r="W3" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="X3" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="X3" s="7" t="s">
-        <v>52</v>
-      </c>
       <c r="Y3" s="7" t="s">
         <v>52</v>
       </c>
       <c r="Z3" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA3" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="AA3" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="AB3" s="6" t="s">
-        <v>43</v>
+      <c r="AB3" s="7" t="s">
+        <v>52</v>
       </c>
       <c r="AC3" s="6" t="s">
         <v>43</v>
@@ -1276,25 +1282,28 @@
         <v>43</v>
       </c>
       <c r="AF3" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG3" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="AG3" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="AH3" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="AI3" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="AJ3" s="6" t="s">
+      <c r="AH3" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AI3" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="AJ3" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK3" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="AK3" s="7" t="s">
+      <c r="AL3" s="7" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:37" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:38" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>37</v>
       </c>
@@ -1343,41 +1352,41 @@
       <c r="P4" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="Q4" s="4" t="s">
-        <v>52</v>
+      <c r="Q4" s="3" t="s">
+        <v>43</v>
       </c>
       <c r="R4" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="S4" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="S4" s="4" t="s">
+      <c r="T4" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="T4" s="4" t="s">
-        <v>43</v>
-      </c>
       <c r="U4" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="V4" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="V4" s="4" t="s">
-        <v>52</v>
-      </c>
       <c r="W4" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="X4" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="X4" s="4" t="s">
+      <c r="Y4" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="Y4" s="4" t="s">
-        <v>52</v>
-      </c>
       <c r="Z4" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA4" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="AA4" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="AB4" s="3" t="s">
-        <v>43</v>
+      <c r="AB4" s="4" t="s">
+        <v>52</v>
       </c>
       <c r="AC4" s="3" t="s">
         <v>43</v>
@@ -1386,28 +1395,31 @@
         <v>43</v>
       </c>
       <c r="AE4" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF4" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="AF4" s="3" t="s">
+      <c r="AG4" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="AG4" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="AH4" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="AI4" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="AJ4" s="3" t="s">
+      <c r="AH4" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AI4" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="AJ4" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK4" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="AK4" s="4" t="s">
+      <c r="AL4" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:37" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:38" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>37</v>
       </c>
@@ -1456,41 +1468,41 @@
       <c r="P5" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="Q5" s="7" t="s">
-        <v>52</v>
+      <c r="Q5" s="6" t="s">
+        <v>43</v>
       </c>
       <c r="R5" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="S5" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="S5" s="7" t="s">
+      <c r="T5" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="T5" s="7" t="s">
-        <v>43</v>
-      </c>
       <c r="U5" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="V5" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="V5" s="7" t="s">
-        <v>52</v>
-      </c>
       <c r="W5" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="X5" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="X5" s="7" t="s">
+      <c r="Y5" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="Y5" s="7" t="s">
-        <v>52</v>
-      </c>
       <c r="Z5" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA5" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="AA5" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="AB5" s="6" t="s">
-        <v>43</v>
+      <c r="AB5" s="7" t="s">
+        <v>52</v>
       </c>
       <c r="AC5" s="6" t="s">
         <v>43</v>
@@ -1499,28 +1511,31 @@
         <v>43</v>
       </c>
       <c r="AE5" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF5" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="AF5" s="6" t="s">
+      <c r="AG5" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="AG5" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="AH5" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="AI5" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="AJ5" s="6" t="s">
+      <c r="AH5" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AI5" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="AJ5" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK5" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="AK5" s="7" t="s">
+      <c r="AL5" s="7" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:37" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:38" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>37</v>
       </c>
@@ -1569,71 +1584,74 @@
       <c r="P6" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="Q6" s="4" t="s">
-        <v>52</v>
+      <c r="Q6" s="3" t="s">
+        <v>43</v>
       </c>
       <c r="R6" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="S6" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="S6" s="4" t="s">
+      <c r="T6" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="T6" s="4" t="s">
-        <v>43</v>
-      </c>
       <c r="U6" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="V6" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="V6" s="4" t="s">
-        <v>52</v>
-      </c>
       <c r="W6" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="X6" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="X6" s="4" t="s">
+      <c r="Y6" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="Y6" s="4" t="s">
-        <v>52</v>
-      </c>
       <c r="Z6" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA6" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="AA6" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="AB6" s="3" t="s">
+      <c r="AB6" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC6" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="AC6" s="3" t="s">
-        <v>43</v>
-      </c>
       <c r="AD6" s="3" t="s">
         <v>43</v>
       </c>
       <c r="AE6" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF6" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="AF6" s="3" t="s">
+      <c r="AG6" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="AG6" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="AH6" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="AI6" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="AJ6" s="3" t="s">
+      <c r="AH6" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AI6" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="AJ6" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK6" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="AK6" s="4" t="s">
+      <c r="AL6" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:37" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:38" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>37</v>
       </c>
@@ -1682,41 +1700,41 @@
       <c r="P7" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="Q7" s="7" t="s">
-        <v>52</v>
+      <c r="Q7" s="6" t="s">
+        <v>43</v>
       </c>
       <c r="R7" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="S7" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="S7" s="7" t="s">
+      <c r="T7" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="T7" s="7" t="s">
-        <v>43</v>
-      </c>
       <c r="U7" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="V7" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="V7" s="7" t="s">
-        <v>52</v>
-      </c>
       <c r="W7" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="X7" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="X7" s="7" t="s">
+      <c r="Y7" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="Y7" s="7" t="s">
-        <v>52</v>
-      </c>
       <c r="Z7" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA7" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="AA7" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="AB7" s="6" t="s">
-        <v>43</v>
+      <c r="AB7" s="7" t="s">
+        <v>52</v>
       </c>
       <c r="AC7" s="6" t="s">
         <v>43</v>
@@ -1728,25 +1746,28 @@
         <v>43</v>
       </c>
       <c r="AF7" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG7" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="AG7" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="AH7" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="AI7" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="AJ7" s="6" t="s">
+      <c r="AH7" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AI7" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="AJ7" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK7" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="AK7" s="7" t="s">
+      <c r="AL7" s="7" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:37" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:38" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>37</v>
       </c>
@@ -1795,71 +1816,74 @@
       <c r="P8" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="Q8" s="4" t="s">
-        <v>52</v>
+      <c r="Q8" s="3" t="s">
+        <v>43</v>
       </c>
       <c r="R8" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="S8" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="S8" s="4" t="s">
+      <c r="T8" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="T8" s="4" t="s">
-        <v>43</v>
-      </c>
       <c r="U8" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="V8" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="V8" s="4" t="s">
-        <v>52</v>
-      </c>
       <c r="W8" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="X8" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="X8" s="4" t="s">
+      <c r="Y8" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="Y8" s="4" t="s">
-        <v>52</v>
-      </c>
       <c r="Z8" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA8" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="AA8" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="AB8" s="3" t="s">
+      <c r="AB8" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC8" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="AC8" s="3" t="s">
+      <c r="AD8" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="AD8" s="3" t="s">
-        <v>43</v>
-      </c>
       <c r="AE8" s="3" t="s">
         <v>43</v>
       </c>
       <c r="AF8" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG8" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="AG8" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="AH8" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="AI8" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="AJ8" s="3" t="s">
+      <c r="AH8" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AI8" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="AJ8" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK8" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="AK8" s="4" t="s">
+      <c r="AL8" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:37" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:38" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>37</v>
       </c>
@@ -1908,71 +1932,74 @@
       <c r="P9" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="Q9" s="7" t="s">
-        <v>52</v>
+      <c r="Q9" s="6" t="s">
+        <v>43</v>
       </c>
       <c r="R9" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="S9" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="S9" s="7" t="s">
+      <c r="T9" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="T9" s="7" t="s">
-        <v>43</v>
-      </c>
       <c r="U9" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="V9" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="V9" s="7" t="s">
-        <v>52</v>
-      </c>
       <c r="W9" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="X9" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="X9" s="7" t="s">
+      <c r="Y9" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="Y9" s="7" t="s">
-        <v>52</v>
-      </c>
       <c r="Z9" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA9" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="AA9" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="AB9" s="6" t="s">
+      <c r="AB9" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC9" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="AC9" s="6" t="s">
+      <c r="AD9" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="AD9" s="6" t="s">
-        <v>43</v>
-      </c>
       <c r="AE9" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF9" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="AF9" s="6" t="s">
+      <c r="AG9" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="AG9" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="AH9" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="AI9" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="AJ9" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="AK9" s="7" t="s">
+      <c r="AH9" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AI9" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="AJ9" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK9" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AL9" s="7" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:37" ht="63" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:38" ht="63" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>37</v>
       </c>
@@ -2021,71 +2048,74 @@
       <c r="P10" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="Q10" s="4" t="s">
-        <v>52</v>
+      <c r="Q10" s="3" t="s">
+        <v>43</v>
       </c>
       <c r="R10" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="S10" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="S10" s="4" t="s">
+      <c r="T10" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="T10" s="4" t="s">
-        <v>43</v>
-      </c>
       <c r="U10" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="V10" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="V10" s="4" t="s">
-        <v>52</v>
-      </c>
       <c r="W10" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="X10" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="X10" s="4" t="s">
+      <c r="Y10" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="Y10" s="4" t="s">
-        <v>52</v>
-      </c>
       <c r="Z10" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA10" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="AA10" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="AB10" s="3" t="s">
+      <c r="AB10" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC10" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="AC10" s="3" t="s">
+      <c r="AD10" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="AD10" s="3" t="s">
-        <v>43</v>
-      </c>
       <c r="AE10" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF10" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="AF10" s="3" t="s">
+      <c r="AG10" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="AG10" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="AH10" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="AI10" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="AJ10" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="AK10" s="4" t="s">
+      <c r="AH10" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AI10" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="AJ10" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK10" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AL10" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:37" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:38" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A11" s="9"/>
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
@@ -2105,46 +2135,47 @@
       <c r="O11" s="10"/>
       <c r="P11" s="10"/>
       <c r="Q11" s="10"/>
-      <c r="R11" s="12" t="s">
+      <c r="R11" s="10"/>
+      <c r="S11" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="S11" s="12" t="s">
+      <c r="T11" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="T11" s="10"/>
-      <c r="U11" s="12" t="s">
+      <c r="U11" s="10"/>
+      <c r="V11" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="V11" s="12" t="s">
-        <v>52</v>
-      </c>
       <c r="W11" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="X11" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="X11" s="12" t="s">
+      <c r="Y11" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="Y11" s="12" t="s">
-        <v>52</v>
-      </c>
       <c r="Z11" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA11" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="AA11" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="AB11" s="10"/>
+      <c r="AB11" s="12" t="s">
+        <v>52</v>
+      </c>
       <c r="AC11" s="10"/>
       <c r="AD11" s="10"/>
       <c r="AE11" s="10"/>
       <c r="AF11" s="10"/>
       <c r="AG11" s="10"/>
       <c r="AH11" s="10"/>
-      <c r="AI11" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="AJ11" s="10"/>
-      <c r="AK11" s="14"/>
+      <c r="AI11" s="10"/>
+      <c r="AJ11" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK11" s="10"/>
+      <c r="AL11" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
